--- a/rawresource/rawconfig/item.xlsx
+++ b/rawresource/rawconfig/item.xlsx
@@ -15,8 +15,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xzc</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">-1表示不可出售</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>array</t>
   </si>
@@ -33,6 +56,12 @@
     <t>名字</t>
   </si>
   <si>
+    <t>最大可堆叠数量</t>
+  </si>
+  <si>
+    <t>出售价格</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -52,6 +81,12 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>pile</t>
+  </si>
+  <si>
+    <t>sell</t>
   </si>
   <si>
     <t>client</t>
@@ -86,12 +121,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,21 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,15 +164,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -162,6 +175,28 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,6 +224,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -196,32 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,28 +279,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,13 +301,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,19 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,145 +463,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,26 +513,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,13 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,93 +584,87 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -645,78 +673,77 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1061,13 +1088,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
@@ -1077,7 +1104,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1093,120 +1120,165 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <v>10000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>10000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
+    <row r="6" spans="2:7">
       <c r="B6" s="1">
         <v>10001</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>10001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
         <v>20000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>20000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
+    <row r="8" spans="2:7">
       <c r="B8" s="1">
         <v>20001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>20001</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="1">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/rawresource/rawconfig/item.xlsx
+++ b/rawresource/rawconfig/item.xlsx
@@ -21,7 +21,7 @@
     <author>xzc</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+  <si>
+    <t>道具配置</t>
+  </si>
+  <si>
+    <t>所有能放进背包的(包括装备)都需要在这里配置</t>
+  </si>
   <si>
     <t>array</t>
   </si>
@@ -121,12 +127,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,12 +142,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,9 +162,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,6 +184,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -171,38 +221,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,75 +239,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,25 +314,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,37 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,115 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,22 +521,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,21 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -584,166 +591,173 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1088,13 +1102,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
@@ -1104,173 +1118,181 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10001</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10001</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
+        <v>99</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1">
         <v>20001</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
         <v>20001</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
         <v>99</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G10" s="1">
         <v>18</v>
       </c>
     </row>
